--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N2">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q2">
-        <v>0.06220083486222222</v>
+        <v>0.02159023543722222</v>
       </c>
       <c r="R2">
-        <v>0.55980751376</v>
+        <v>0.194312118935</v>
       </c>
       <c r="S2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="T2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>38.984044</v>
       </c>
       <c r="O3">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P3">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q3">
         <v>10.59363240557111</v>
@@ -632,10 +632,10 @@
         <v>95.34269165014</v>
       </c>
       <c r="S3">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="T3">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>16.495119</v>
       </c>
       <c r="O4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q4">
         <v>4.482429456835</v>
@@ -694,10 +694,10 @@
         <v>40.341865111515</v>
       </c>
       <c r="S4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="T4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
     </row>
   </sheetData>
